--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projectdemo\Interface_Auto_Test\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6179D753-F004-4B48-B32F-E0E916AB5A7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A474524-0AD9-4AF7-8C87-C94D02902209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="委托下单" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="442">
   <si>
     <t>case</t>
   </si>
@@ -2477,172 +2477,19 @@
     <t>必填参数fund_account输入错误的证券账号</t>
   </si>
   <si>
-    <t>http://trade-route-develop.ntdev.be:8084/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
     <t>必填参数fund_account为空</t>
   </si>
   <si>
-    <t>http://trade-route-develop.ntdev.be:8085/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
     <t>必填参数fund_account不填</t>
   </si>
   <si>
-    <t>http://trade-route-develop.ntdev.be:8086/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
     <t>必填参数fund_account输入数值数据</t>
   </si>
   <si>
-    <t>http://trade-route-develop.ntdev.be:8087/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
     <t>必填参数fund_account输入符号</t>
   </si>
   <si>
-    <t>http://trade-route-develop.ntdev.be:8088/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
     <t>必填参数fund_account前后带有空格</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8089/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8090/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8091/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8092/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8093/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8094/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8095/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8096/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8097/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8098/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8099/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8100/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8101/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8102/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8103/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8104/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8105/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8106/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8107/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8108/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8109/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8110/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8111/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8112/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8113/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8114/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8115/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8116/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8117/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8118/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8119/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8120/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8121/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8122/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8123/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8124/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8125/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8126/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8127/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8150/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8151/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8152/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8153/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8154/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8155/GXSocket/NewGateWay.aspx</t>
-  </si>
-  <si>
-    <t>http://trade-route-develop.ntdev.be:8156/GXSocket/NewGateWay.aspx</t>
   </si>
   <si>
     <t>{'error_no': -1, 'error_info': 'has not session_no', 'error_info_ansi': 'has not session_no'}</t>
@@ -2832,6 +2679,102 @@
   <si>
     <t>先调用登录接口
 MF=201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填参数batch_flag输入0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填参数batch_flag输入1, entrust_no输入委托批号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填参数batch_flag输入3, 提示参数错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填参数batch_flag输入-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填参数batch_flag输入数值型数据1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填参数batch_flag带有空格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填参数entrust_no_first输入正确的委托序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填参数entrust_no_first输入错误的委托序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填参数entrust_no_first输入数值型数据123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填参数entrust_no_first带有空格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当batch_flag不等于1时, entrust_no输入委托批号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填参数entrust_no输入数值型数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填参数entrust_no输入委托序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填参数entrust_no带有空格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填参数cancel_type输入0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填参数cancel_type输入1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填参数cancel_type输入2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填参数cancel_type输入-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填参数cancel_type输入字符"1"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填参数batch_flag不传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填参数entrust_no_first不传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填参数entrust_no不传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填参数cancel_type不传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填参数和非必填参数一起</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2893,7 +2836,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2909,6 +2852,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3227,8 +3173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="C113" zoomScale="89" workbookViewId="0">
+      <selection activeCell="F111" sqref="F106:F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3271,7 +3217,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>464</v>
+        <v>413</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -3286,10 +3232,10 @@
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>465</v>
+        <v>414</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>466</v>
+        <v>415</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>10</v>
@@ -3333,7 +3279,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>468</v>
+        <v>417</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>19</v>
@@ -3345,7 +3291,7 @@
         <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>444</v>
+        <v>393</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>23</v>
@@ -3383,10 +3329,10 @@
         <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>445</v>
+        <v>394</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>442</v>
+        <v>391</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>27</v>
@@ -3412,7 +3358,7 @@
         <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>19</v>
@@ -3444,7 +3390,7 @@
         <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>449</v>
+        <v>398</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>19</v>
@@ -3476,7 +3422,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>19</v>
@@ -3508,7 +3454,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>19</v>
@@ -3520,10 +3466,10 @@
         <v>21</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>443</v>
+        <v>392</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>442</v>
+        <v>391</v>
       </c>
       <c r="M7" t="s">
         <v>32</v>
@@ -3549,7 +3495,7 @@
         <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>450</v>
+        <v>399</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>19</v>
@@ -3590,7 +3536,7 @@
         <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>19</v>
@@ -3631,7 +3577,7 @@
         <v>40</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>19</v>
@@ -3672,7 +3618,7 @@
         <v>44</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>19</v>
@@ -3713,7 +3659,7 @@
         <v>48</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>19</v>
@@ -3754,7 +3700,7 @@
         <v>52</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>19</v>
@@ -3795,7 +3741,7 @@
         <v>56</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>19</v>
@@ -3833,10 +3779,10 @@
         <v>17</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>451</v>
+        <v>400</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>19</v>
@@ -3874,10 +3820,10 @@
         <v>17</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>452</v>
+        <v>401</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>19</v>
@@ -3915,10 +3861,10 @@
         <v>17</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>453</v>
+        <v>402</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>19</v>
@@ -3956,10 +3902,10 @@
         <v>17</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>458</v>
+        <v>407</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>19</v>
@@ -3974,7 +3920,7 @@
         <v>71</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="M18" t="s">
         <v>72</v>
@@ -3997,10 +3943,10 @@
         <v>17</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>457</v>
+        <v>406</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>19</v>
@@ -4038,10 +3984,10 @@
         <v>17</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>455</v>
+        <v>404</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>19</v>
@@ -4079,10 +4025,10 @@
         <v>17</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>456</v>
+        <v>405</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>19</v>
@@ -4120,10 +4066,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>459</v>
+        <v>408</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>19</v>
@@ -4161,10 +4107,10 @@
         <v>17</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>460</v>
+        <v>409</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>19</v>
@@ -4202,10 +4148,10 @@
         <v>17</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>461</v>
+        <v>410</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>19</v>
@@ -4246,7 +4192,7 @@
         <v>92</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>19</v>
@@ -4287,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>19</v>
@@ -4328,7 +4274,7 @@
         <v>98</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>19</v>
@@ -4369,7 +4315,7 @@
         <v>101</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>19</v>
@@ -4410,7 +4356,7 @@
         <v>104</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>19</v>
@@ -4451,7 +4397,7 @@
         <v>107</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>19</v>
@@ -4492,7 +4438,7 @@
         <v>110</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>19</v>
@@ -4533,7 +4479,7 @@
         <v>113</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>19</v>
@@ -4574,7 +4520,7 @@
         <v>116</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>19</v>
@@ -4615,7 +4561,7 @@
         <v>119</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>19</v>
@@ -4656,7 +4602,7 @@
         <v>123</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>19</v>
@@ -4697,7 +4643,7 @@
         <v>127</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>19</v>
@@ -4738,7 +4684,7 @@
         <v>130</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>19</v>
@@ -4779,7 +4725,7 @@
         <v>133</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>19</v>
@@ -4820,7 +4766,7 @@
         <v>136</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>19</v>
@@ -4861,7 +4807,7 @@
         <v>139</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>19</v>
@@ -4902,7 +4848,7 @@
         <v>143</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>19</v>
@@ -4943,7 +4889,7 @@
         <v>147</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>19</v>
@@ -4984,7 +4930,7 @@
         <v>150</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>19</v>
@@ -5025,7 +4971,7 @@
         <v>153</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>19</v>
@@ -5066,7 +5012,7 @@
         <v>156</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>19</v>
@@ -5107,7 +5053,7 @@
         <v>160</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>19</v>
@@ -5148,7 +5094,7 @@
         <v>164</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>19</v>
@@ -5189,7 +5135,7 @@
         <v>168</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>19</v>
@@ -5230,7 +5176,7 @@
         <v>172</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>19</v>
@@ -5271,7 +5217,7 @@
         <v>175</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>19</v>
@@ -5312,7 +5258,7 @@
         <v>178</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>19</v>
@@ -5353,7 +5299,7 @@
         <v>181</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>19</v>
@@ -5394,7 +5340,7 @@
         <v>184</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>19</v>
@@ -5435,7 +5381,7 @@
         <v>188</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>19</v>
@@ -5476,7 +5422,7 @@
         <v>192</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>19</v>
@@ -5517,7 +5463,7 @@
         <v>194</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>19</v>
@@ -5558,7 +5504,7 @@
         <v>198</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>19</v>
@@ -5599,7 +5545,7 @@
         <v>202</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>19</v>
@@ -5640,7 +5586,7 @@
         <v>205</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>19</v>
@@ -5681,7 +5627,7 @@
         <v>208</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>19</v>
@@ -5722,7 +5668,7 @@
         <v>211</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>19</v>
@@ -5763,7 +5709,7 @@
         <v>214</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>19</v>
@@ -5804,7 +5750,7 @@
         <v>218</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>19</v>
@@ -5845,7 +5791,7 @@
         <v>221</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>19</v>
@@ -5886,7 +5832,7 @@
         <v>224</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>19</v>
@@ -5927,7 +5873,7 @@
         <v>226</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>19</v>
@@ -5968,7 +5914,7 @@
         <v>229</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>19</v>
@@ -6009,7 +5955,7 @@
         <v>232</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>19</v>
@@ -6050,7 +5996,7 @@
         <v>235</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>19</v>
@@ -6091,7 +6037,7 @@
         <v>238</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>19</v>
@@ -6132,7 +6078,7 @@
         <v>241</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>19</v>
@@ -6173,7 +6119,7 @@
         <v>244</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>19</v>
@@ -6214,7 +6160,7 @@
         <v>247</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>19</v>
@@ -6255,7 +6201,7 @@
         <v>250</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>19</v>
@@ -6296,7 +6242,7 @@
         <v>253</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>19</v>
@@ -6337,7 +6283,7 @@
         <v>256</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>19</v>
@@ -6378,7 +6324,7 @@
         <v>259</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>19</v>
@@ -6419,7 +6365,7 @@
         <v>262</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>19</v>
@@ -6460,7 +6406,7 @@
         <v>265</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>19</v>
@@ -6501,7 +6447,7 @@
         <v>269</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>19</v>
@@ -6542,7 +6488,7 @@
         <v>272</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>19</v>
@@ -6583,7 +6529,7 @@
         <v>275</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>19</v>
@@ -6624,7 +6570,7 @@
         <v>278</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>19</v>
@@ -6665,7 +6611,7 @@
         <v>281</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>19</v>
@@ -6706,7 +6652,7 @@
         <v>284</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>19</v>
@@ -6747,7 +6693,7 @@
         <v>287</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>19</v>
@@ -6788,7 +6734,7 @@
         <v>290</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>19</v>
@@ -6829,7 +6775,7 @@
         <v>293</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>19</v>
@@ -6870,7 +6816,7 @@
         <v>296</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>19</v>
@@ -6911,7 +6857,7 @@
         <v>299</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>19</v>
@@ -6952,7 +6898,7 @@
         <v>302</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>19</v>
@@ -6993,7 +6939,7 @@
         <v>305</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>19</v>
@@ -7034,7 +6980,7 @@
         <v>308</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>19</v>
@@ -7075,7 +7021,7 @@
         <v>311</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>19</v>
@@ -7116,7 +7062,7 @@
         <v>314</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>19</v>
@@ -7157,7 +7103,7 @@
         <v>317</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>19</v>
@@ -7198,7 +7144,7 @@
         <v>320</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>19</v>
@@ -7239,7 +7185,7 @@
         <v>323</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>19</v>
@@ -7280,7 +7226,7 @@
         <v>326</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>19</v>
@@ -7321,7 +7267,7 @@
         <v>329</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>19</v>
@@ -7362,7 +7308,7 @@
         <v>332</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>19</v>
@@ -7403,7 +7349,7 @@
         <v>335</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>19</v>
@@ -7444,7 +7390,7 @@
         <v>338</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>19</v>
@@ -7485,7 +7431,7 @@
         <v>341</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>19</v>
@@ -7526,7 +7472,7 @@
         <v>344</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>19</v>
@@ -7567,7 +7513,7 @@
         <v>347</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>19</v>
@@ -7608,7 +7554,7 @@
         <v>350</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>19</v>
@@ -7649,7 +7595,7 @@
         <v>353</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>19</v>
@@ -7690,7 +7636,7 @@
         <v>356</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>19</v>
@@ -7731,7 +7677,7 @@
         <v>359</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>19</v>
@@ -7772,7 +7718,7 @@
         <v>362</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>19</v>
@@ -7813,7 +7759,7 @@
         <v>365</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>19</v>
@@ -7825,7 +7771,7 @@
         <v>21</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>441</v>
+        <v>390</v>
       </c>
       <c r="L112" s="5" t="s">
         <v>23</v>
@@ -7854,7 +7800,7 @@
         <v>367</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>19</v>
@@ -7895,7 +7841,7 @@
         <v>371</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>19</v>
@@ -7936,7 +7882,7 @@
         <v>374</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>19</v>
@@ -7977,7 +7923,7 @@
         <v>377</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>19</v>
@@ -7989,10 +7935,10 @@
         <v>21</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>440</v>
+        <v>389</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="M116" t="s">
         <v>378</v>
@@ -20889,16 +20835,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.88671875" style="3" customWidth="1"/>
-    <col min="6" max="7" width="25.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="33.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="26.33203125" style="3" customWidth="1"/>
     <col min="10" max="10" width="30.88671875" style="3" customWidth="1"/>
     <col min="11" max="11" width="42.44140625" style="3" customWidth="1"/>
@@ -20925,7 +20872,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>464</v>
+        <v>413</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -20940,10 +20887,10 @@
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>465</v>
+        <v>414</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>466</v>
+        <v>415</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>10</v>
@@ -20984,10 +20931,10 @@
         <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>462</v>
+        <v>411</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>467</v>
+        <v>416</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>19</v>
@@ -20999,27 +20946,65 @@
         <v>380</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>444</v>
+        <v>393</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="193.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>463</v>
+        <v>412</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>382</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>467</v>
+        <v>416</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>383</v>
+        <v>19</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>20</v>
@@ -21029,12 +21014,27 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>385</v>
+        <v>19</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>20</v>
@@ -21044,12 +21044,27 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>387</v>
+        <v>19</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>20</v>
@@ -21059,12 +21074,27 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>389</v>
+        <v>19</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>20</v>
@@ -21074,12 +21104,27 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>20</v>
@@ -21089,12 +21134,27 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>393</v>
+        <v>19</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>20</v>
@@ -21104,12 +21164,27 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>394</v>
+        <v>19</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>20</v>
@@ -21119,12 +21194,27 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>63</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>395</v>
+        <v>19</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>20</v>
@@ -21134,12 +21224,27 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F12" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>396</v>
+        <v>19</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>20</v>
@@ -21149,12 +21254,27 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F13" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>397</v>
+        <v>19</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>20</v>
@@ -21164,12 +21284,27 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F14" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>398</v>
+        <v>19</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>20</v>
@@ -21179,12 +21314,27 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F15" s="2" t="s">
         <v>77</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>399</v>
+        <v>19</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>20</v>
@@ -21194,12 +21344,27 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F16" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>400</v>
+        <v>19</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>20</v>
@@ -21208,13 +21373,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="17" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F17" s="2" t="s">
         <v>83</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>401</v>
+        <v>19</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>20</v>
@@ -21223,13 +21403,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F18" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>402</v>
+        <v>19</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>20</v>
@@ -21238,13 +21433,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F19" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>403</v>
+        <v>19</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>20</v>
@@ -21253,13 +21463,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="20" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F20" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>404</v>
+        <v>19</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>20</v>
@@ -21268,13 +21493,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="21" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F21" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>405</v>
+        <v>19</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>20</v>
@@ -21283,13 +21523,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>98</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>406</v>
+        <v>19</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>20</v>
@@ -21298,13 +21553,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="23" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F23" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>407</v>
+        <v>19</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>20</v>
@@ -21313,13 +21583,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="24" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F24" s="2" t="s">
         <v>104</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>408</v>
+        <v>19</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>20</v>
@@ -21328,13 +21613,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="25" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F25" s="2" t="s">
         <v>107</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>409</v>
+        <v>19</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>20</v>
@@ -21343,13 +21643,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="26" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F26" s="2" t="s">
         <v>110</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>410</v>
+        <v>19</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>20</v>
@@ -21358,13 +21673,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="27" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F27" s="2" t="s">
         <v>113</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>411</v>
+        <v>19</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>20</v>
@@ -21373,13 +21703,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="28" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F28" s="2" t="s">
         <v>116</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>412</v>
+        <v>19</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>20</v>
@@ -21388,13 +21733,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="29" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F29" s="2" t="s">
         <v>119</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>413</v>
+        <v>19</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>20</v>
@@ -21403,13 +21763,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="30" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F30" s="2" t="s">
         <v>123</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>414</v>
+        <v>19</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>20</v>
@@ -21418,13 +21793,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="31" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F31" s="2" t="s">
         <v>127</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>415</v>
+        <v>19</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>20</v>
@@ -21433,13 +21823,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="32" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F32" s="2" t="s">
         <v>130</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>416</v>
+        <v>19</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>20</v>
@@ -21448,13 +21853,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="33" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F33" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>417</v>
+        <v>19</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>20</v>
@@ -21463,13 +21883,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="34" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F34" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>418</v>
+        <v>19</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>20</v>
@@ -21478,13 +21913,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="35" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F35" s="2" t="s">
         <v>139</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>419</v>
+        <v>19</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>20</v>
@@ -21493,13 +21943,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="36" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F36" s="2" t="s">
         <v>143</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>420</v>
+        <v>19</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>20</v>
@@ -21508,13 +21973,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="37" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F37" s="2" t="s">
         <v>147</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>421</v>
+        <v>19</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>20</v>
@@ -21523,13 +22003,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F38" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>422</v>
+        <v>19</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>20</v>
@@ -21538,13 +22033,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="39" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F39" s="2" t="s">
         <v>153</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>423</v>
+        <v>19</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>20</v>
@@ -21553,13 +22063,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="40" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F40" s="2" t="s">
         <v>156</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>424</v>
+        <v>19</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>20</v>
@@ -21568,13 +22093,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F41" s="2" t="s">
         <v>160</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>425</v>
+        <v>19</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>20</v>
@@ -21583,13 +22123,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="42" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F42" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>426</v>
+        <v>19</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>20</v>
@@ -21598,13 +22153,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="43" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F43" s="2" t="s">
         <v>168</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>427</v>
+        <v>19</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>20</v>
@@ -21613,13 +22183,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="44" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F44" s="2" t="s">
         <v>172</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>428</v>
+        <v>19</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>20</v>
@@ -21628,13 +22213,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="45" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F45" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>429</v>
+        <v>19</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>20</v>
@@ -21643,13 +22243,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="46" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F46" s="2" t="s">
         <v>178</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>430</v>
+        <v>19</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>20</v>
@@ -21658,13 +22273,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="47" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F47" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>431</v>
+        <v>19</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>20</v>
@@ -21673,13 +22303,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F48" s="2" t="s">
         <v>253</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>432</v>
+        <v>19</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>20</v>
@@ -21688,13 +22333,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="49" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F49" s="2" t="s">
         <v>256</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>433</v>
+        <v>19</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>20</v>
@@ -21703,13 +22363,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F50" s="2" t="s">
         <v>259</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>434</v>
+        <v>19</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>20</v>
@@ -21718,13 +22393,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="51" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F51" s="2" t="s">
         <v>262</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>435</v>
+        <v>19</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>20</v>
@@ -21733,13 +22423,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="52" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F52" s="2" t="s">
         <v>265</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>436</v>
+        <v>19</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>20</v>
@@ -21748,13 +22453,28 @@
         <v>380</v>
       </c>
     </row>
-    <row r="53" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F53" s="2" t="s">
         <v>269</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>437</v>
+        <v>19</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>20</v>
@@ -21763,23 +22483,1432 @@
         <v>380</v>
       </c>
     </row>
-    <row r="54" spans="6:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F54" s="2" t="s">
         <v>272</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>438</v>
+        <v>19</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J54" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J102" s="2" t="s">
         <v>380</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>